--- a/公司管理/财务/发票/2023-Q1/进项.xlsx
+++ b/公司管理/财务/发票/2023-Q1/进项.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chair\OneDrive\Desktop\Business\techedu\公司管理\财务\发票\2023-Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{A659EBE8-66C3-4649-8AD8-A4FD92258B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243FD82-E811-44CE-B72F-20A819601606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>2023 Q1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>雪中飞</t>
   </si>
@@ -63,19 +49,42 @@
   </si>
   <si>
     <t>启迪之星租金</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>电子版</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,94 +424,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="32.06640625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1363.37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1363.37</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
         <v>3254.4</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="D12">
-        <f>SUM(D4:D11)</f>
+    <row r="12" spans="3:5">
+      <c r="E12">
+        <f>SUM(E4:E11)</f>
         <v>6024.9699999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>